--- a/Комплексные решения Рассчет вентиляции.xlsx
+++ b/Комплексные решения Рассчет вентиляции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Коммерческие предложения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D6841-2FA9-42B6-88C0-E55096802828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F05862-E690-4BE2-A782-30A2EA6D617F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{CEDFC41A-5BAA-4B43-BF32-857C3C420D33}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,9 +68,6 @@
     <t>Выключатель автоматический трехполюсный 32А С iC60N 6кА</t>
   </si>
   <si>
-    <t>Выключатель автоматический однополюсный 1А С iC60N 6кА</t>
-  </si>
-  <si>
     <t>Провод ПУГВ 1х0.5</t>
   </si>
   <si>
@@ -97,6 +93,9 @@
   </si>
   <si>
     <t>за работу получается</t>
+  </si>
+  <si>
+    <t>Выключатель автоматический однополюсный 6А С iC60N 6кА</t>
   </si>
 </sst>
 </file>
@@ -452,7 +451,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,14 +471,14 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>6900</v>
+        <v>8940</v>
       </c>
       <c r="E1">
         <f>C1*D1</f>
-        <v>6900</v>
+        <v>8940</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1">
         <v>41846</v>
@@ -506,15 +505,15 @@
         <v>194.4</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <f>H1-F21</f>
-        <v>14544.560000000001</v>
+        <v>5275.5599999999977</v>
       </c>
       <c r="I2">
         <f>I1-F23</f>
-        <v>21369.920000000002</v>
+        <v>10761.126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,14 +650,14 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1781</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1781</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,17 +683,17 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1886</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1886</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -702,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -720,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -738,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -756,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -774,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -792,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -810,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -834,7 +833,7 @@
       </c>
       <c r="F21">
         <f>SUM(E1:E18)</f>
-        <v>27301.439999999999</v>
+        <v>36570.44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,8 +846,8 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <f>F21*0.75</f>
-        <v>20476.079999999998</v>
+        <f>F21*0.85</f>
+        <v>31084.874</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
